--- a/Quotations/quotation excel .xlsx
+++ b/Quotations/quotation excel .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Startup_tools/Quotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B48F2B-79A8-3742-BE99-8BDB35483D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7D9DD-7C9D-F544-A5CD-AB1C72098CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{63E54717-0ADA-6344-8716-F5D70ABBEA42}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63E54717-0ADA-6344-8716-F5D70ABBEA42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="creality " sheetId="1" r:id="rId1"/>
+    <sheet name="bambu lab " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
   <si>
     <t>Brand</t>
   </si>
@@ -44,12 +45,6 @@
     <t>filament material</t>
   </si>
   <si>
-    <t>nozzal diameter</t>
-  </si>
-  <si>
-    <t>nozzal material</t>
-  </si>
-  <si>
     <t>filament diameter</t>
   </si>
   <si>
@@ -57,16 +52,499 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sr no </t>
+  </si>
+  <si>
+    <t>creality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1C </t>
+  </si>
+  <si>
+    <t>name of 3D Printers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon fiber 3d printing </t>
+  </si>
+  <si>
+    <t>220*220*250mm</t>
+  </si>
+  <si>
+    <t>0.4mm</t>
+  </si>
+  <si>
+    <t>1.75mm</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nozzle temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nozzle details </t>
+  </si>
+  <si>
+    <t>nozzle diameter</t>
+  </si>
+  <si>
+    <t>nozzle material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filament details </t>
+  </si>
+  <si>
+    <t>printing speed</t>
+  </si>
+  <si>
+    <t>&lt;=300 deg Cel</t>
+  </si>
+  <si>
+    <t>&lt;=600mm/s</t>
+  </si>
+  <si>
+    <t>https://wol3d.com/product/creality-k1c-3d-printer/?gad_source=1&amp;gad_campaignid=23441662932&amp;gbraid=0AAAAA-dpvGAv90qs5GtFZQg6epftLIaaE&amp;gclid=CjwKCAiA95fLBhBPEiwATXUsxKPAiBdwEGtXjP31FaFAp5ksrFfVLTHrRUNWIsxXasYPn2BvhRg6aRoCNBsQAvD_BwE</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>300*300*300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4mm (swappable with 0.6/0.8mm nozzle </t>
+  </si>
+  <si>
+    <t>abs, pla, petg,pet,tpu,pa,asa,pc,pla-cf,pa-cf,pet-cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardened steel </t>
+  </si>
+  <si>
+    <t>https://wol3d.com/product/creality-k1-max-3d-printer/?gad_source=1&amp;gad_campaignid=23441662932&amp;gbraid=0AAAAA-dpvGAv90qs5GtFZQg6epftLIaaE&amp;gclid=CjwKCAiA95fLBhBPEiwATXUsxARUt_WvdIdxqR6vFGpkza4J7NL6BuJL8vHjNxVtqAUhi5BH294johoCQAMQAvD_BwE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k2 pro </t>
+  </si>
+  <si>
+    <t>abs, pla, petg,pet,asa, pla-cf,pa-cf,ppa-cf</t>
+  </si>
+  <si>
+    <t>csf (creality filament system)</t>
+  </si>
+  <si>
+    <t>99,999-122,199</t>
+  </si>
+  <si>
+    <t>to be considered/not considered</t>
+  </si>
+  <si>
+    <t>Upgraded Creality Ender 3 DIY 3D Printer With Resume Function and Easy To Assemble (V4.2.2)</t>
+  </si>
+  <si>
+    <t>220 x 220 x 250mm</t>
+  </si>
+  <si>
+    <t>100mm/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs, pla,tpu,wood </t>
+  </si>
+  <si>
+    <t>https://wol3d.com/product/upgraded-creality-ender-3-printer-v422/</t>
+  </si>
+  <si>
+    <t>221 x 220 x 250mm</t>
+  </si>
+  <si>
+    <t>&lt;100mm/s</t>
+  </si>
+  <si>
+    <t>pla,petg,tpu</t>
+  </si>
+  <si>
+    <t>https://wol3d.com/product/creality-ender-3-v3-se-3d-printer/</t>
+  </si>
+  <si>
+    <t>222 x 220 x 300mm</t>
+  </si>
+  <si>
+    <t>pla abs pteg</t>
+  </si>
+  <si>
+    <t>250mm/s</t>
+  </si>
+  <si>
+    <t>ender 7 3D printer</t>
+  </si>
+  <si>
+    <t>https://wol3d.com/product/ender-7-3d-printer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 v3 se </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 s1 plus </t>
+  </si>
+  <si>
+    <t>pla abs pteg tpu</t>
+  </si>
+  <si>
+    <t>https://wol3d.com/product/ender-3-s1-plus-3d-printer-300300300/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k1 max </t>
+  </si>
+  <si>
+    <t>600mm/s</t>
+  </si>
+  <si>
+    <t>300*300*301</t>
+  </si>
+  <si>
+    <t>WOL3D (oofline)</t>
+  </si>
+  <si>
+    <t>amazon(online)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 v3 ke </t>
+  </si>
+  <si>
+    <t>220*220*240</t>
+  </si>
+  <si>
+    <t>500mm/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs pteg tpu asa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR 10 SE </t>
+  </si>
+  <si>
+    <t>220*220*265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs pteg pla-wood pet pa pla-cf tpu asa </t>
+  </si>
+  <si>
+    <t>hardened steel (copper+titanium alloys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sermoon d1 </t>
+  </si>
+  <si>
+    <t>280*260*310</t>
+  </si>
+  <si>
+    <t>pla abs tpu</t>
+  </si>
+  <si>
+    <t>0.4mm optional 0.2mm/0.8mm/1.2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR 5 pro </t>
+  </si>
+  <si>
+    <t>300*225*380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs </t>
+  </si>
+  <si>
+    <t>&lt;=300</t>
+  </si>
+  <si>
+    <t>re-assembled with sheet metal cover
+Support high-temp filaments
+Support cloud printing
+BLTouch auto-leveling
+Ultra-silent motherboard</t>
+  </si>
+  <si>
+    <t>Industrial-grade printing
+Exquisite appearance
+Transparent design
+Dual-Z axis screw
+Variable voltage power supply
+Excellent nozzle structure
+All-metal extrusion
+Smart sensor
+Silent mainboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 5 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi combo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k2 plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3v3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 5 s1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 max neo </t>
+  </si>
+  <si>
+    <t>ender 3 s1 pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sermoon v1 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 6 se </t>
+  </si>
+  <si>
+    <t>ender 3 (V4.2.2)</t>
+  </si>
+  <si>
+    <t>cr 01</t>
+  </si>
+  <si>
+    <t>cr 10 s5</t>
+  </si>
+  <si>
+    <t>220*220*300</t>
+  </si>
+  <si>
+    <t>260*260*300</t>
+  </si>
+  <si>
+    <t>0.4mm (optional 0.6mm, 0.8mm)</t>
+  </si>
+  <si>
+    <t>hyper-pla, pla, petg, abs, pla-cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500mm/s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">350*350*350mm </t>
+  </si>
+  <si>
+    <t>pla tpu pteg abs pla-cf pteg-cf cr-carbon</t>
+  </si>
+  <si>
+    <t>300*300*320mm</t>
+  </si>
+  <si>
+    <t>120mm/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs petg wood </t>
+  </si>
+  <si>
+    <t>220*220*270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs pteg,tpu nylon asa </t>
+  </si>
+  <si>
+    <t>220*220*280mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla pteg abs tpu pc asa hips </t>
+  </si>
+  <si>
+    <t>175*175*175</t>
+  </si>
+  <si>
+    <t>100*100*80</t>
+  </si>
+  <si>
+    <t>235*235*250mm</t>
+  </si>
+  <si>
+    <t>200*200*200</t>
+  </si>
+  <si>
+    <t>220*220*250</t>
+  </si>
+  <si>
+    <t>500*500*500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 neo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla petg abs </t>
+  </si>
+  <si>
+    <t>ender 3 v2 neo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 s1 driect drive </t>
+  </si>
+  <si>
+    <t>487*453*622mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 10 smart pro </t>
+  </si>
+  <si>
+    <t>300*300*400</t>
+  </si>
+  <si>
+    <t>pla abs petg tpu pa carbon fiber composite</t>
+  </si>
+  <si>
+    <t>chromium ziconium copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 10 smart </t>
+  </si>
+  <si>
+    <t>pla abs tpu petg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 30 </t>
+  </si>
+  <si>
+    <t>200*170*infinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 6 </t>
+  </si>
+  <si>
+    <t>250*250*400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla tpu wood carbon fiber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 3 max </t>
+  </si>
+  <si>
+    <t>300*300*340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla tpu petg abs wood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgraded ender 3 v2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla tpu petg </t>
+  </si>
+  <si>
+    <t>supported os mac/window xp/7/8/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 10 v3 e </t>
+  </si>
+  <si>
+    <t>180mm/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs petg tpu  </t>
+  </si>
+  <si>
+    <t>supported system mac linux windows xp vista 7/8/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ender 5 plus </t>
+  </si>
+  <si>
+    <t>350*350*400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 10s pro v2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs tpu wood copper </t>
+  </si>
+  <si>
+    <t>cr 10 v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla, abs tpu petg </t>
+  </si>
+  <si>
+    <t>450*450*470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr 10 max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr x pro dual color </t>
+  </si>
+  <si>
+    <t>300*300*400 / 270*270*400</t>
+  </si>
+  <si>
+    <t>0.4mm can be changed to 0.3/0.2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla abs tpu copper wood carbon fiber gradient color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgraded ender 3 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs pla wood carbon fiber </t>
+  </si>
+  <si>
+    <t>0.4,0.6,0.8mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla petg abs pla-cf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr m4 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,7 +558,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -88,14 +566,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,45 +1143,1551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3210C8E-A1BD-6A4A-88B7-301C1D52D7D9}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="O1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="18">
+        <v>47699</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>71999</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>71999</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>71999</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>255</v>
+      </c>
+      <c r="K8" s="2">
+        <v>13999</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>180</v>
+      </c>
+      <c r="K9" s="2">
+        <v>27999</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>17999</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>260</v>
+      </c>
+      <c r="K11" s="2">
+        <v>22600</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>260</v>
+      </c>
+      <c r="K12" s="2">
+        <v>39799</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>260</v>
+      </c>
+      <c r="K13" s="2">
+        <v>29999</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="2">
+        <v>120</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>260</v>
+      </c>
+      <c r="K14" s="2">
+        <v>16999</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>31000</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <v>300</v>
+      </c>
+      <c r="K17" s="2">
+        <v>39999</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>300</v>
+      </c>
+      <c r="K18" s="2">
+        <v>27599</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>260</v>
+      </c>
+      <c r="K19" s="2">
+        <v>22299</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>17999</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>26639</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>25000</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>44499</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="2">
+        <v>300</v>
+      </c>
+      <c r="K24" s="2">
+        <v>31500</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" ht="204" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <v>250</v>
+      </c>
+      <c r="K26" s="2">
+        <v>53999</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="2">
+        <v>76999</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>26699</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>300</v>
+      </c>
+      <c r="K30" s="2">
+        <v>39599</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>79999</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="2">
+        <v>300</v>
+      </c>
+      <c r="K34" s="2">
+        <v>64999</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
+        <v>260</v>
+      </c>
+      <c r="K35" s="2">
+        <v>44999</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <v>32500</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
+        <v>260</v>
+      </c>
+      <c r="K39" s="2">
+        <v>44500</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>51600</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>52000</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>255</v>
+      </c>
+      <c r="K43" s="2">
+        <v>19999</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
+        <v>300</v>
+      </c>
+      <c r="K44" s="2">
+        <v>26099</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{2D9B256E-9538-0D4A-8124-54CCC3C55A0E}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{E0F80612-FFDA-7E42-8E50-E3E3AC123DD8}"/>
+    <hyperlink ref="N8" r:id="rId3" xr:uid="{52480AC3-B125-6049-8C25-D2F71BBE7F2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4810DBD-0CE1-7145-A9AD-3779E0BF3709}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Quotations/quotation excel .xlsx
+++ b/Quotations/quotation excel .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Startup_tools/Quotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7D9DD-7C9D-F544-A5CD-AB1C72098CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210BE212-9C19-9F44-9D29-09868235FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63E54717-0ADA-6344-8716-F5D70ABBEA42}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="170">
   <si>
     <t>Brand</t>
   </si>
@@ -315,12 +315,12 @@
     <t xml:space="preserve">cr 6 se </t>
   </si>
   <si>
+    <t>cp 01</t>
+  </si>
+  <si>
     <t>ender 3 (V4.2.2)</t>
   </si>
   <si>
-    <t>cr 01</t>
-  </si>
-  <si>
     <t>cr 10 s5</t>
   </si>
   <si>
@@ -514,6 +514,51 @@
   </si>
   <si>
     <t xml:space="preserve">cr m4 </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
   </si>
 </sst>
 </file>
@@ -558,7 +603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -582,13 +627,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -600,12 +656,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -615,25 +680,67 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -645,15 +752,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -663,10 +768,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -675,69 +789,46 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -745,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -757,63 +848,358 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -824,6 +1210,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADE32A48-6716-4846-B41D-2C95ADCD8443}" name="Table3" displayName="Table3" ref="A3:O47" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="15" tableBorderDxfId="16" headerRowCellStyle="Hyperlink">
+  <autoFilter ref="A3:O47" xr:uid="{ADE32A48-6716-4846-B41D-2C95ADCD8443}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O47">
+    <sortCondition ref="K4:K47"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{93AC7E42-CB0B-BF47-BAB4-FB4DAC7D3558}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A3BBAB5A-0569-804C-B466-AEA29F7936F3}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{606A4292-F41E-E641-AAC4-ECB6F942D9CB}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{5028BF31-F12B-A44A-B708-4EDD926EAD22}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{51881558-D1C2-D44E-8DBE-A301A6E73419}" name="Column5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FA9BA093-F284-654E-8C8C-5EA0CBF78AAB}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{410E5F4A-2B2A-0548-8341-E3655021F0E7}" name="Column7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{A467C303-FB71-424E-886B-B7D93231A76B}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{DFFC2A0B-5E4C-B847-9A1B-1F708AC29B6B}" name="Column9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{3486D31D-CAAF-744D-B156-936AAA58E396}" name="Column10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{F855DB98-8285-6D49-85A3-EBDFA55B07EF}" name="Column11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{02BF030C-EDE0-5240-BCF4-8C415A2F2E0B}" name="Column12" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{2E52DD6C-03B0-9442-BD69-EABBDBBDAC6E}" name="Column13" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{AC210D89-55C8-E042-8A71-19389675906D}" name="Column14" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{9097AF9F-F90D-CB42-AA26-1E4FED3C73B1}" name="Column15" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,14 +1556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3210C8E-A1BD-6A4A-88B7-301C1D52D7D9}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
@@ -1160,228 +1575,219 @@
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.5" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="25" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="24"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="18">
-        <v>47699</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2">
-        <v>71999</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>71999</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <v>255</v>
+      </c>
+      <c r="K4" s="6">
+        <v>13999</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
+      <c r="J5" s="2">
+        <v>260</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16999</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>8</v>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
@@ -1392,122 +1798,124 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>71999</v>
+        <v>17999</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>17999</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>4</v>
+      <c r="O7" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
         <v>255</v>
       </c>
       <c r="K8" s="2">
-        <v>13999</v>
+        <v>19999</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>127</v>
+      <c r="C9" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="K9" s="2">
-        <v>27999</v>
+        <v>22299</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="9"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>5</v>
+      <c r="A10" s="9">
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>14</v>
@@ -1516,79 +1924,63 @@
         <v>13</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>260</v>
+      </c>
       <c r="K10" s="2">
-        <v>17999</v>
+        <v>22600</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>6</v>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>260</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2">
-        <v>22600</v>
+        <v>22999</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>7</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1596,38 +1988,28 @@
         <v>13</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>260</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <v>39799</v>
+        <v>24999</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1635,62 +2017,68 @@
         <v>13</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>260</v>
-      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2">
-        <v>29999</v>
+        <v>25000</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="2">
-        <v>120</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="K14" s="2">
-        <v>16999</v>
+        <v>26099</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>14</v>
@@ -1701,54 +2089,60 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
-        <v>31000</v>
+        <v>26639</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>26699</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>9</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>14</v>
@@ -1761,122 +2155,126 @@
         <v>300</v>
       </c>
       <c r="K17" s="2">
-        <v>39999</v>
+        <v>27599</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K18" s="2">
-        <v>27599</v>
+        <v>27999</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="F19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2">
         <v>260</v>
       </c>
       <c r="K19" s="2">
-        <v>22299</v>
+        <v>29999</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="2"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
-        <v>17999</v>
+        <v>31000</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>10</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>14</v>
@@ -1884,88 +2282,110 @@
       <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="I21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="2">
+        <v>300</v>
+      </c>
       <c r="K21" s="2">
-        <v>26639</v>
+        <v>31500</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>22</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
-        <v>25000</v>
+        <v>32500</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2"/>
+      <c r="O22" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>300</v>
+      </c>
       <c r="K23" s="2">
-        <v>44499</v>
+        <v>39599</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>10</v>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>14</v>
@@ -1973,502 +2393,544 @@
       <c r="H24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K24" s="2">
-        <v>31500</v>
+        <v>39799</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="N24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>300</v>
+      </c>
+      <c r="K25" s="2">
+        <v>39999</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" ht="204" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>11</v>
-      </c>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2">
-        <v>250</v>
-      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2">
-        <v>53999</v>
+        <v>43999</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>12</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2">
-        <v>76999</v>
+        <v>44499</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>13</v>
+      <c r="A28" s="9">
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2">
+        <v>260</v>
+      </c>
+      <c r="K28" s="2">
+        <v>44500</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>14</v>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <v>260</v>
+      </c>
       <c r="K29" s="2">
-        <v>26699</v>
+        <v>44999</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2">
-        <v>300</v>
+      <c r="J30" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K30" s="2">
-        <v>39599</v>
+        <v>47699</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="9"/>
+      <c r="N30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>16</v>
+      <c r="A31" s="9">
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>51600</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>17</v>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>52000</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>18</v>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" ht="204" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <v>250</v>
+      </c>
       <c r="K33" s="2">
-        <v>79999</v>
+        <v>53999</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>19</v>
+      <c r="O33" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="2">
-        <v>300</v>
-      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2">
-        <v>64999</v>
+        <v>59799</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>20</v>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2">
-        <v>260</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2">
-        <v>44999</v>
+        <v>63070</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>21</v>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="I36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="2">
+        <v>300</v>
+      </c>
+      <c r="K36" s="2">
+        <v>64999</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="9"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
       <c r="K37" s="2">
-        <v>32500</v>
+        <v>71999</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>23</v>
+      <c r="M37" s="2">
+        <v>71999</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>71999</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>24</v>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>140</v>
+      <c r="F39" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2">
-        <v>260</v>
+      <c r="J39" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K39" s="2">
-        <v>44500</v>
+        <v>76999</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="9"/>
+      <c r="O39" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>25</v>
+      <c r="A40" s="9">
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
@@ -2476,25 +2938,25 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
-        <v>51600</v>
+        <v>79999</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="9"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>26</v>
+      <c r="A41" s="9">
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2504,158 +2966,179 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>79999</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>27</v>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>148</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
-        <v>52000</v>
+        <v>83999</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="9"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>28</v>
+      <c r="A43" s="9">
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2">
-        <v>255</v>
-      </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <v>19999</v>
+        <v>110000</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>29</v>
+      <c r="A44" s="10">
+        <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2">
-        <v>300</v>
-      </c>
-      <c r="K44" s="2">
-        <v>26099</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="9"/>
+      <c r="C44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
+        <v>119599</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="16"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <v>143999</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2672,11 +3155,14 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{2D9B256E-9538-0D4A-8124-54CCC3C55A0E}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{E0F80612-FFDA-7E42-8E50-E3E3AC123DD8}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{52480AC3-B125-6049-8C25-D2F71BBE7F2E}"/>
+    <hyperlink ref="N30" r:id="rId1" xr:uid="{2D9B256E-9538-0D4A-8124-54CCC3C55A0E}"/>
+    <hyperlink ref="N37" r:id="rId2" xr:uid="{E0F80612-FFDA-7E42-8E50-E3E3AC123DD8}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{52480AC3-B125-6049-8C25-D2F71BBE7F2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Quotations/quotation excel .xlsx
+++ b/Quotations/quotation excel .xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/Startup_tools/Quotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210BE212-9C19-9F44-9D29-09868235FA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1869C2B5-D23C-DF48-BA89-0C2E671F6DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63E54717-0ADA-6344-8716-F5D70ABBEA42}"/>
   </bookViews>
   <sheets>
     <sheet name="creality " sheetId="1" r:id="rId1"/>
     <sheet name="bambu lab " sheetId="2" r:id="rId2"/>
+    <sheet name="anycubic " sheetId="3" r:id="rId3"/>
+    <sheet name="elegoo" sheetId="4" r:id="rId4"/>
+    <sheet name="flasforge " sheetId="5" r:id="rId5"/>
+    <sheet name="prusa" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="319">
   <si>
     <t>Brand</t>
   </si>
@@ -560,12 +564,471 @@
   <si>
     <t>Column15</t>
   </si>
+  <si>
+    <t xml:space="preserve">bambu lab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256*256*256 </t>
+  </si>
+  <si>
+    <t>stainless steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla petg tpu pva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1 mini </t>
+  </si>
+  <si>
+    <t>180*180*180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1 mini combo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1s </t>
+  </si>
+  <si>
+    <t>p1s with ams 2 pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1 carbon </t>
+  </si>
+  <si>
+    <t>x1 carbon combo</t>
+  </si>
+  <si>
+    <t>h2d pro</t>
+  </si>
+  <si>
+    <t>a1 combo with ams</t>
+  </si>
+  <si>
+    <t>refurbished bambu lab p1s combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1e </t>
+  </si>
+  <si>
+    <t>p2s combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2d </t>
+  </si>
+  <si>
+    <t>h2d combo</t>
+  </si>
+  <si>
+    <t>h2d combo 2 (10 watt)</t>
+  </si>
+  <si>
+    <t>h2d combo 2 (40 watt)</t>
+  </si>
+  <si>
+    <t>h2s ams combo</t>
+  </si>
+  <si>
+    <t>h2s laser full combo</t>
+  </si>
+  <si>
+    <t>tungsten carbide super durable nozzle</t>
+  </si>
+  <si>
+    <t>nozzle temperature (degree Celcius)</t>
+  </si>
+  <si>
+    <t>nozzle diameter (mm)</t>
+  </si>
+  <si>
+    <t>printing speed (mm/s)</t>
+  </si>
+  <si>
+    <t>0.4, 0.2, 0.6,  0.8</t>
+  </si>
+  <si>
+    <t>filament diameter (mm)</t>
+  </si>
+  <si>
+    <t>chamber temperature control, air purification, cooling system, sensors and smart features, electronics and control</t>
+  </si>
+  <si>
+    <t>256*256*256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensors : Filament Run Out Sensor	
+Filament Odometry	
+Power Loss Recover	
+Filament Tangle Sensor	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4 (included), 0.6, 0.8, 0.2 (optional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ideal: PLA, PETG, TPU, PVA, PET
+Capable: PA, PC, ABS, ASA	</t>
+  </si>
+  <si>
+    <t>256*256*257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensors : Filament Run Out Sensor	
+Filament Odometry	
+Power Loss Recover	
+Filament Tangle Sensor( net weight : 9.65kg gross weight 14.30kg)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filament run out sensor, chamber monitoring camera ( net weight : 12.9kg gross weight 17.6kg)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">filament run out sensor, chamber monitoring camera ( physical dim : 485*480*585 net weightand  gross weight 21.60kg)  </t>
+  </si>
+  <si>
+    <t>It features Advanced Waveform Sharing (AWS) for up to 16-color multi-color prints , making it perfect for vibrant, complex designs.</t>
+  </si>
+  <si>
+    <t>same as p1s but sold by WOL hence cost is low</t>
+  </si>
+  <si>
+    <t>p1p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1s combo </t>
+  </si>
+  <si>
+    <t>hardened steel</t>
+  </si>
+  <si>
+    <t>PLA, PETG, TPU, ABS, ASA, PVA, PET
+Ideal for PA, PC, Carbon/ Glass Fiber Reinforced Polymer</t>
+  </si>
+  <si>
+    <t>single nozzle : 325*320*325 dual nozzle : 300*320*325</t>
+  </si>
+  <si>
+    <t>h2c 10W laser full combo</t>
+  </si>
+  <si>
+    <t>h2c 40W laser full combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2c ams combo </t>
+  </si>
+  <si>
+    <t>Robu  (oofline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anycubic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra 2 neo </t>
+  </si>
+  <si>
+    <t>250*220*220</t>
+  </si>
+  <si>
+    <t>pla abs petg tpu</t>
+  </si>
+  <si>
+    <t>kobra 3 combo</t>
+  </si>
+  <si>
+    <t>250*250*260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warranty available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print in 4 to 8 colors, RFID sync, filament extruded control, auto resume prints, detect resume all by itself, auto levelling auto Z-offset </t>
+  </si>
+  <si>
+    <t>Kobra 3 only supports PLA, PETG and TPU. ACE PRO only supports PLA, PETG, ABS, ASA, PET, PA, PC, PP, HIPS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra s1 combo </t>
+  </si>
+  <si>
+    <t>PLA, ABS, PETG, TPU, ASA</t>
+  </si>
+  <si>
+    <t>250*250*250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-color vibrant printing with filament hub support, </t>
+  </si>
+  <si>
+    <t>photon mono 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra s1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra 3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra 2 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">photon mono m7 pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra v2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">photon mono 4 ultra </t>
+  </si>
+  <si>
+    <t>kobra 2 plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mono m7 max </t>
+  </si>
+  <si>
+    <t>photon mono m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo mono </t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo mono 4k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra 2 max </t>
+  </si>
+  <si>
+    <t>photon mono m5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobra max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 max pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 max combo </t>
+  </si>
+  <si>
+    <t>photon mono m7</t>
+  </si>
+  <si>
+    <t>photon mono 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photon momo m5s pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">photon m3 max </t>
+  </si>
+  <si>
+    <t>not available in 3idea.in</t>
+  </si>
+  <si>
+    <t>other (3idea.in)</t>
+  </si>
+  <si>
+    <t>132*80*165</t>
+  </si>
+  <si>
+    <t>ABS/ASA/PLA/PETG/PLA+</t>
+  </si>
+  <si>
+    <t>Standard 0.4mm, Supports 0.2/0.6/0.8mm expansion</t>
+  </si>
+  <si>
+    <t>pla, abs, petg, tpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filament sensors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">display screen lcd </t>
+  </si>
+  <si>
+    <t>223*126*230</t>
+  </si>
+  <si>
+    <t>255*255*260</t>
+  </si>
+  <si>
+    <t>Standard 0.4 mm; optional 0.6 / 0.8 mm</t>
+  </si>
+  <si>
+    <t>PLA, PETG, TPU </t>
+  </si>
+  <si>
+    <t>touchscreen, Filament run-out detection, power-loss resume, filament entanglement detection, AI spaghetti detection, object-skip &amp; area leveling, camera</t>
+  </si>
+  <si>
+    <t>153*87*165</t>
+  </si>
+  <si>
+    <t>400*320*320</t>
+  </si>
+  <si>
+    <t>198*164*300</t>
+  </si>
+  <si>
+    <t>wol3d (ofline)</t>
+  </si>
+  <si>
+    <t>3idea.in (ofline)</t>
+  </si>
+  <si>
+    <t>robu (offline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centauri carbon </t>
+  </si>
+  <si>
+    <t>neptune 4 pro fdm</t>
+  </si>
+  <si>
+    <t>neptune 4 max fdm</t>
+  </si>
+  <si>
+    <t>pla abs petg tpu pa-cf</t>
+  </si>
+  <si>
+    <t>touchscreen lcd</t>
+  </si>
+  <si>
+    <t>225*225*265</t>
+  </si>
+  <si>
+    <t>300-500</t>
+  </si>
+  <si>
+    <t>pla petg abs tpu high temperature filament like nylon</t>
+  </si>
+  <si>
+    <t>420*420*480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla petg tpu abs asa nylon filaments </t>
+  </si>
+  <si>
+    <t>ad5x</t>
+  </si>
+  <si>
+    <t>adventure 5m pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adventure 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">voxelable aquila d1 </t>
+  </si>
+  <si>
+    <t>guider 3</t>
+  </si>
+  <si>
+    <t>creator 3 pro</t>
+  </si>
+  <si>
+    <t>PLA, PETG, ASA, TPU</t>
+  </si>
+  <si>
+    <t>Smart Features: Automatic filament switching &amp; 99% power outage recovery
+Multi-Color Printing: Supports up to 4 colors with no bleeding</t>
+  </si>
+  <si>
+    <t>220*220*220</t>
+  </si>
+  <si>
+    <t>0.4, 0.6, 0.8,0.25</t>
+  </si>
+  <si>
+    <t>PLA/*PETG/*TPU (0.4mm nozzle) ABS/ASA PLA-CF/PETG-CF (0.6/0.8mm nozzle)</t>
+  </si>
+  <si>
+    <t>220*200*250</t>
+  </si>
+  <si>
+    <t>0.4, 0.6/0.3</t>
+  </si>
+  <si>
+    <t>ABS, PC, PETG, PETG-CF, PLA, PLA-CF</t>
+  </si>
+  <si>
+    <t>235*235*250</t>
+  </si>
+  <si>
+    <t>25-point Auto Leveling
+Dual-gear Direct Extruder
+Strong Wire Feeding Force up to 70N
+PEI Spring Steel Magnetic Build Plate</t>
+  </si>
+  <si>
+    <t>PLA, ABS, PETG, and TPU.</t>
+  </si>
+  <si>
+    <t>300*250*340</t>
+  </si>
+  <si>
+    <t>PA-CF, PA-GF, PETG-CF, PETG-GF, PA, PC, ABS, ASA, PLA-CF, PLA</t>
+  </si>
+  <si>
+    <t>0.4, 0.6, 0.3</t>
+  </si>
+  <si>
+    <t>300*250*200</t>
+  </si>
+  <si>
+    <t>10-150</t>
+  </si>
+  <si>
+    <t>0.4, 0.6, 0.8</t>
+  </si>
+  <si>
+    <t>ABS, ASA, HIPS, PA, PACF, PC, PETG, PLA, PVA, WOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashforge </t>
+  </si>
+  <si>
+    <t>original prusa min+ 3d printer kit</t>
+  </si>
+  <si>
+    <t>original prusa mini plus assembled 3d printer</t>
+  </si>
+  <si>
+    <t>original prusa mk4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mk4 </t>
+  </si>
+  <si>
+    <t>core 1 kit 3d printer unassembled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl1s speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180*180*180 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pla tpu abs </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,16 +1057,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -831,14 +1306,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -878,48 +1402,269 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="65">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -928,21 +1673,97 @@
         </right>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -951,6 +1772,13 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -970,6 +1798,13 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -989,6 +1824,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1008,6 +1849,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1027,6 +1874,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1046,6 +1899,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1065,6 +1924,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1084,11 +1949,15 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1103,6 +1972,61 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1122,6 +2046,13 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1141,6 +2072,187 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1166,9 +2278,7 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1185,6 +2295,547 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1197,6 +2848,29 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1213,27 +2887,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADE32A48-6716-4846-B41D-2C95ADCD8443}" name="Table3" displayName="Table3" ref="A3:O47" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="15" tableBorderDxfId="16" headerRowCellStyle="Hyperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADE32A48-6716-4846-B41D-2C95ADCD8443}" name="Table3" displayName="Table3" ref="A3:O47" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" headerRowCellStyle="Hyperlink">
   <autoFilter ref="A3:O47" xr:uid="{ADE32A48-6716-4846-B41D-2C95ADCD8443}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O47">
     <sortCondition ref="K4:K47"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{93AC7E42-CB0B-BF47-BAB4-FB4DAC7D3558}" name="Column1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A3BBAB5A-0569-804C-B466-AEA29F7936F3}" name="Column2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{606A4292-F41E-E641-AAC4-ECB6F942D9CB}" name="Column3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{5028BF31-F12B-A44A-B708-4EDD926EAD22}" name="Column4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{51881558-D1C2-D44E-8DBE-A301A6E73419}" name="Column5" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{93AC7E42-CB0B-BF47-BAB4-FB4DAC7D3558}" name="Column1" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{A3BBAB5A-0569-804C-B466-AEA29F7936F3}" name="Column2" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{606A4292-F41E-E641-AAC4-ECB6F942D9CB}" name="Column3" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{5028BF31-F12B-A44A-B708-4EDD926EAD22}" name="Column4" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{51881558-D1C2-D44E-8DBE-A301A6E73419}" name="Column5" dataDxfId="56"/>
     <tableColumn id="6" xr3:uid="{FA9BA093-F284-654E-8C8C-5EA0CBF78AAB}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{410E5F4A-2B2A-0548-8341-E3655021F0E7}" name="Column7" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{410E5F4A-2B2A-0548-8341-E3655021F0E7}" name="Column7" dataDxfId="55"/>
     <tableColumn id="8" xr3:uid="{A467C303-FB71-424E-886B-B7D93231A76B}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{DFFC2A0B-5E4C-B847-9A1B-1F708AC29B6B}" name="Column9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{3486D31D-CAAF-744D-B156-936AAA58E396}" name="Column10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{F855DB98-8285-6D49-85A3-EBDFA55B07EF}" name="Column11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{02BF030C-EDE0-5240-BCF4-8C415A2F2E0B}" name="Column12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{2E52DD6C-03B0-9442-BD69-EABBDBBDAC6E}" name="Column13" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{AC210D89-55C8-E042-8A71-19389675906D}" name="Column14" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{9097AF9F-F90D-CB42-AA26-1E4FED3C73B1}" name="Column15" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DFFC2A0B-5E4C-B847-9A1B-1F708AC29B6B}" name="Column9" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{3486D31D-CAAF-744D-B156-936AAA58E396}" name="Column10" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{F855DB98-8285-6D49-85A3-EBDFA55B07EF}" name="Column11" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{02BF030C-EDE0-5240-BCF4-8C415A2F2E0B}" name="Column12" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{2E52DD6C-03B0-9442-BD69-EABBDBBDAC6E}" name="Column13" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{AC210D89-55C8-E042-8A71-19389675906D}" name="Column14" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{9097AF9F-F90D-CB42-AA26-1E4FED3C73B1}" name="Column15" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{418EB62C-1CC8-3440-81EA-EB65592987FC}" name="Table2" displayName="Table2" ref="A3:N28" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="46" tableBorderDxfId="47" headerRowCellStyle="Hyperlink">
+  <autoFilter ref="A3:N28" xr:uid="{418EB62C-1CC8-3440-81EA-EB65592987FC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N28">
+    <sortCondition ref="J4:J28"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{B6A647AF-7654-3B47-A181-E55C0D9257BF}" name="Column1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{BAEA4D98-9279-4F4C-B9A8-5BD3A7093514}" name="Column2" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{13B8C7EB-8A36-8245-998D-F35D85C875CD}" name="Column3" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{41B92524-0138-824A-A901-F12E2B422D92}" name="Column4" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{0A024CC7-3742-344F-AACC-3DBE4F529131}" name="Column5" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{F066E754-63EC-A84B-888A-1606620711B7}" name="Column6" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{98235FAF-C70A-ED4E-95F5-4B8017AC83F3}" name="Column7" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{AE2FD038-0B0B-904D-86EF-D509D471CAD3}" name="Column8" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{92157BB9-0351-524E-961B-10DF285886C5}" name="Column9" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{3E3B49E2-8981-FB4D-A195-B0119E7D9C7C}" name="Column10" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{6FD9854A-117F-434B-8B72-E1BC20C58F32}" name="Column11" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{69E5196C-653A-9447-808F-9374CA41BE68}" name="Column12" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{C9AA4C2A-FFED-FD4D-BCFA-EE7F5E95DBBB}" name="Column13" dataDxfId="33" dataCellStyle="Hyperlink"/>
+    <tableColumn id="14" xr3:uid="{2CBFE23F-AEAA-5F49-8606-39FD5E87D30A}" name="Column14" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8396596C-8030-DC45-9BC7-721CCBB51E44}" name="Table5" displayName="Table5" ref="A3:N28" totalsRowShown="0" headerRowBorderDxfId="29" tableBorderDxfId="30">
+  <autoFilter ref="A3:N28" xr:uid="{8396596C-8030-DC45-9BC7-721CCBB51E44}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N28">
+    <sortCondition ref="L4:L28"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{731E3658-0130-C440-AFD5-F85610C4FE78}" name="Column1" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{C53C8C27-01CE-7847-9B18-69D213E2F0CE}" name="Column2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A78DE17F-2B7E-024F-BF4E-98ABB0DD2D87}" name="Column3" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{069835E9-648D-A843-99F5-92982F7B4BEC}" name="Column4" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{FA2D7B62-3B42-004C-ADBC-D880A3268DED}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{564629BE-020C-BA40-B615-B5919F490471}" name="Column6" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{AFC48330-A67B-174F-A097-5A7DA5742E41}" name="Column7" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{F9F20272-CE05-4646-BE77-12D4518411C4}" name="Column8" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{6C3D6822-EC98-144A-814E-D008651D7C0B}" name="Column9" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{C28DA354-3372-764D-A907-ACADCF59C90E}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{44F83578-44C7-784A-98EF-5F09D0CD96D1}" name="Column11" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{96B4600D-D5F3-604B-BE8E-886D868B79A3}" name="Column12" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{A6ECB5C2-6FED-064D-99CB-C7ECBEEB42BC}" name="Column13" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{EE5D456E-9384-8F4B-B552-3CA3EC208001}" name="Column14" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{33DEB333-C039-7844-BFAE-A554446436FE}" name="Table7" displayName="Table7" ref="A3:N6" totalsRowShown="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A3:N6" xr:uid="{33DEB333-C039-7844-BFAE-A554446436FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N6">
+    <sortCondition ref="M4:M6"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{5B19D890-9928-4E42-9EB6-405405B71F61}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5D8FC1B8-CCD5-8041-9A1A-11B092ABBA52}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{9841DBA7-0C02-F143-A35E-E9342195A660}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{574E4A00-7521-7B4F-AF18-CF988FADDAB7}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{60B884F5-9A08-CB49-846D-C4D00F593138}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{77F5B29E-59FA-A649-92EA-0FB555943C26}" name="Column6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{A3DC032F-3F7E-B948-B2D9-7702FA0C6E5B}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{C30A8503-1F8A-CB40-8062-4A0E4A3A5B6E}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{61994878-E16D-344A-A472-5A1D1DF986D9}" name="Column9" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{8BB073D8-DE28-3A49-8B62-B7963ABCC862}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{9C7DACEA-FA55-114F-B204-647BD218F55D}" name="Column11" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{38595621-1F33-384F-9D4A-1C01528905CE}" name="Column12" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{1CEAD9F2-B29E-D849-BCC8-644F236E455D}" name="Column13" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{0A362FBA-B86F-EF48-BCFE-CA2B4E964C77}" name="Column14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{ACA82EBE-85B2-2D46-8B04-9ABF189AC972}" name="Table9" displayName="Table9" ref="A3:N9" totalsRowShown="0">
+  <autoFilter ref="A3:N9" xr:uid="{ACA82EBE-85B2-2D46-8B04-9ABF189AC972}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N9">
+    <sortCondition ref="M4:M9"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{A64BAA34-ED6C-3D4D-A90E-C6FC8A55ABB3}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F5D58BD7-EA83-964C-B94B-6A26CE8AAF41}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{17360FD9-4FA8-E649-9290-6960D03BF62D}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{B96F58B2-6C21-8349-A095-2338AECAF4D7}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{3A2D87B7-262D-8043-A622-F6E9E6679CEB}" name="Column5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{8EBDCC5F-4817-8C45-B7D2-C9BFA3D30045}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{B81EB1C2-B2D8-2240-9086-0DCA773EF3D3}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{5A3123CC-41B8-4346-A5DE-35512CA0B5DD}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{901E89F9-F2C7-6E4B-AFF5-B5CD8D6B38FD}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{D6EF7CA5-2EC2-0543-88CC-549508D15BD7}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{4C94E1BF-0A3C-5D4C-AE95-61989886399B}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{9FEEF5D4-EF1C-DA46-8FE6-2F92EE99D00E}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{85345E58-D476-0846-9571-5374DACF3AED}" name="Column13" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{479C701D-E3B8-1D4E-A7B0-0AAD6509EEA6}" name="Column14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BF78A1B3-F01A-2142-BA37-0F0247C392DA}" name="Table11" displayName="Table11" ref="B3:N9" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="B3:N9" xr:uid="{BF78A1B3-F01A-2142-BA37-0F0247C392DA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N9">
+    <sortCondition ref="M4:M9"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{4B453E94-50EE-D549-B936-4658233C0737}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{820924BB-B2AF-074C-8B3F-8B02D2F46C58}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{F3EAE487-A29D-B140-8B08-35849B72A817}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{15C0D41A-9AEC-8F4E-945F-C0810A6679B3}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B8313C24-C8A5-8C47-926C-9312B31EF3ED}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{A693DB15-6FE6-674B-A09A-012D48E062AF}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{B0A1AD27-3280-D443-A45B-C6BCB3ABFCBE}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{BA2F316D-C335-A349-86F9-02F162E792F8}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{1714A191-C73B-8447-82BF-0EA5F1BEA4DC}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{42502797-D5DA-5940-9A7B-48599B95C043}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{C3C82A0B-0079-EC4F-BB38-045E403F1D31}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{FCEB9A4C-00C6-7B4E-96F3-2AA0F33DC7E1}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{70A5F88D-EC9A-6441-B03C-98294B3868D0}" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1559,7 +3362,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,39 +3383,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="22" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
@@ -1620,37 +3423,37 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="29"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1696,7 +3499,7 @@
       <c r="N3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="19" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3142,16 +4945,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3168,12 +4971,2905 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4810DBD-0CE1-7145-A9AD-3779E0BF3709}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="30">
+        <v>20599</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="37">
+        <v>500</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="30">
+        <v>30899</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="31">
+        <v>36999</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="2">
+        <v>500</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+      <c r="J7" s="31">
+        <v>45999</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>300</v>
+      </c>
+      <c r="J8" s="31">
+        <v>46999</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="2">
+        <v>300</v>
+      </c>
+      <c r="J9" s="31">
+        <v>55499</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="31">
+        <v>57000</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="2">
+        <v>300</v>
+      </c>
+      <c r="J11" s="31">
+        <v>69999</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="2">
+        <v>300</v>
+      </c>
+      <c r="J12" s="31">
+        <v>77499</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="31">
+        <v>95999</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="31">
+        <v>99999</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="2">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1.75</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="45">
+        <v>300</v>
+      </c>
+      <c r="J15" s="31">
+        <v>128999</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="2">
+        <v>500</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="2">
+        <v>300</v>
+      </c>
+      <c r="J16" s="31">
+        <v>149999</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="31">
+        <v>149999</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="31">
+        <v>171999</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="31">
+        <v>214999</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="31">
+        <v>239999</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="31">
+        <v>249999</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2">
+        <v>320</v>
+      </c>
+      <c r="J22" s="31">
+        <v>299000</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="31">
+        <v>299999</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="31">
+        <v>309999</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="31">
+        <v>369999</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="31">
+        <v>369999</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="2">
+        <v>350</v>
+      </c>
+      <c r="J27" s="31">
+        <v>439999</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="49">
+        <v>439999</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="42"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBBCAA3-3F86-5142-BDF3-18145FA3BEE4}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="9" width="11" customWidth="1"/>
+    <col min="10" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="37">
+        <v>250</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="30">
+        <v>14999</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="30">
+        <v>12740</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="30">
+        <v>17999</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="65">
+        <v>19108</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="31">
+        <v>21199</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="55">
+        <v>23519</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2">
+        <v>260</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="31">
+        <v>24899</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="2">
+        <v>600</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="31">
+        <v>26999</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="2">
+        <v>600</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2">
+        <v>320</v>
+      </c>
+      <c r="J11" s="64">
+        <v>36099</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="31">
+        <v>29999</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="55">
+        <v>34764</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="2">
+        <v>500</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>260</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="31">
+        <v>37549</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="2">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>300</v>
+      </c>
+      <c r="J14" s="64">
+        <v>46459</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="31">
+        <v>37999</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2">
+        <v>300</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="31">
+        <v>37999</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="53"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="55">
+        <v>42999</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="55">
+        <v>42999</v>
+      </c>
+      <c r="M17" s="51"/>
+      <c r="N17" s="61"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="66">
+        <v>44999</v>
+      </c>
+      <c r="M18" s="56"/>
+      <c r="N18" s="61"/>
+    </row>
+    <row r="19" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="33">
+        <v>600</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="64">
+        <v>69999</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="64">
+        <v>49999</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="55">
+        <v>49999</v>
+      </c>
+      <c r="M20" s="51"/>
+      <c r="N20" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="55">
+        <v>50499</v>
+      </c>
+      <c r="M21" s="51"/>
+      <c r="N21" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="31">
+        <v>52999</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="67"/>
+    </row>
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="55">
+        <v>53999</v>
+      </c>
+      <c r="M23" s="51"/>
+      <c r="N23" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="55">
+        <v>54523</v>
+      </c>
+      <c r="M24" s="51"/>
+      <c r="N24" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="55">
+        <v>60959</v>
+      </c>
+      <c r="M25" s="51"/>
+      <c r="N25" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="55">
+        <v>69999</v>
+      </c>
+      <c r="M26" s="51"/>
+      <c r="N26" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="55">
+        <v>71999</v>
+      </c>
+      <c r="M27" s="51"/>
+      <c r="N27" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="31">
+        <v>74932</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7186D9-4491-E44D-9CA0-DB65DB1F9487}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="11" customWidth="1"/>
+    <col min="10" max="14" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="88"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75">
+        <v>300</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76">
+        <v>27999</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="75">
+        <v>500</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="75">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75">
+        <v>320</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76">
+        <v>38499</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="92"/>
+      <c r="B6" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="93">
+        <v>500</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="93"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="93">
+        <v>300</v>
+      </c>
+      <c r="J6" s="94"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94">
+        <v>40000</v>
+      </c>
+      <c r="N6" s="95"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="97"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="97"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="97"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="97"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="82"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="79"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="97"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="97"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="97"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="97"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="97"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="79"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="79"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D404680A-08D5-E94A-B9E4-2B216892D794}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="10" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="88"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="69">
+        <v>180</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="69">
+        <v>1.75</v>
+      </c>
+      <c r="G4" s="70">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="69">
+        <v>300</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71">
+        <v>28999</v>
+      </c>
+      <c r="N4" s="72"/>
+    </row>
+    <row r="5" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="75">
+        <v>600</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="75">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75">
+        <v>300</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76">
+        <v>35699</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="75">
+        <v>600</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76">
+        <v>54999</v>
+      </c>
+      <c r="N6" s="77"/>
+    </row>
+    <row r="7" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="81" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="93">
+        <v>1.75</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94">
+        <v>79999</v>
+      </c>
+      <c r="N7" s="74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="83">
+        <v>250</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M8" s="50">
+        <v>151697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>308</v>
+      </c>
+      <c r="M9" s="50">
+        <v>189949</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3CBAAC-5330-6446-93F0-00F4394D4B83}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="10" width="11" customWidth="1"/>
+    <col min="11" max="14" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="88"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="103" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71">
+        <v>49999</v>
+      </c>
+      <c r="N4" s="72"/>
+    </row>
+    <row r="5" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="69">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71">
+        <v>57894</v>
+      </c>
+      <c r="N5" s="91"/>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76">
+        <v>110174</v>
+      </c>
+      <c r="N6" s="90"/>
+    </row>
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94">
+        <v>118170</v>
+      </c>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="106" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="38"/>
+      <c r="M8" s="50">
+        <v>149664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="M9" s="50">
+        <v>168445</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>